--- a/01_project_관리/03_Struct정의.xlsx
+++ b/01_project_관리/03_Struct정의.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>*명명규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,30 +69,6 @@
   </si>
   <si>
     <t>enum State { Standby, Signed, Calcuated ) // 상태 : 대기, 체결, 정산종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inc주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapping ( address -&gt; Order )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dec주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,14 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inc정산수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dec정산수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>incCalcQty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decCalcQty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>orderAddress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,14 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정산 후 Dec주문계정으로의 ether 배분 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정산 후 Inc주문계정으로의 ether 배분 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주문 정산 시점 시세(eth/krw) - 계약기간 경과시점 정산시 시세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주문대장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OrderBook</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,6 +230,74 @@
   </si>
   <si>
     <t>개별주문 1건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문대장구조체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예치수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qtyTotalDeposit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qtyInvestor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qtyHedger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피자수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자자수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investor ether 배분 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedger ether 배분 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예치기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timelimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +347,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +436,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,11 +454,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F29"/>
+  <dimension ref="B2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -773,39 +813,39 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>59</v>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>63</v>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="5"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
@@ -818,7 +858,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="5"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
@@ -833,271 +873,328 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="5"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="8"/>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="8"/>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" ht="33">
+      <c r="B15" s="8"/>
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="8"/>
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="5"/>
-      <c r="C13" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="8"/>
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="8"/>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="8"/>
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="8"/>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="8"/>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="8"/>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="9"/>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="4"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="4"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="4"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="4"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="4"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="14"/>
+      <c r="C36" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="33">
-      <c r="B14" s="5"/>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="5"/>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="5"/>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="5"/>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="5"/>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="5"/>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="5"/>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="6"/>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="5"/>
-      <c r="C23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="5"/>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="5"/>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="5"/>
-      <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="5"/>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="5"/>
-      <c r="C28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="6"/>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="1"/>
+      <c r="F36" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="B9:B23"/>
+    <mergeCell ref="B29:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_project_관리/03_Struct정의.xlsx
+++ b/01_project_관리/03_Struct정의.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27975" windowHeight="12495"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27975" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>*명명규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +299,105 @@
   </si>
   <si>
     <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.목표일</t>
+  </si>
+  <si>
+    <t>(T+지정일)</t>
+  </si>
+  <si>
+    <t>시장시세유형</t>
+  </si>
+  <si>
+    <t>거래자</t>
+  </si>
+  <si>
+    <t>선택옵션</t>
+  </si>
+  <si>
+    <t>배분수량</t>
+  </si>
+  <si>
+    <t>화폐단위</t>
+  </si>
+  <si>
+    <t> 기준 eth/KRW </t>
+  </si>
+  <si>
+    <t>eth 가치 상승률</t>
+  </si>
+  <si>
+    <t> KRW 환산가치 </t>
+  </si>
+  <si>
+    <t>상승장</t>
+  </si>
+  <si>
+    <t>1.거래채결일</t>
+  </si>
+  <si>
+    <t>(T)</t>
+  </si>
+  <si>
+    <t>투자수량</t>
+  </si>
+  <si>
+    <t>의도</t>
+  </si>
+  <si>
+    <t>금융투자수익</t>
+  </si>
+  <si>
+    <t>Risk Hedge</t>
+  </si>
+  <si>
+    <t>김헷지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최투자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최투자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hedger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> -&gt; Investor는 보유eth가치상승수익 + 배분수량증가에 따른 수익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> -&gt; Hedger는 거래체결일의 KRW환산가치에 해당하는 eth수량을 배분(원화 가치 유지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> -&gt; Investor는 보유eth가치하락 + hedger 손해수량 보전으로인한 보유수량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하락장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hedger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +405,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,8 +433,68 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +519,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -417,13 +598,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,6 +749,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,20 +767,144 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="통화 [0]" xfId="1" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -765,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -828,7 +1262,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -845,7 +1279,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="8"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,7 +1292,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="8"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
@@ -873,7 +1307,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="8"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
@@ -886,7 +1320,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="8"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
@@ -899,7 +1333,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="8"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
@@ -912,7 +1346,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" ht="33">
-      <c r="B15" s="8"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -927,7 +1361,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="8"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
@@ -940,7 +1374,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="8"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
@@ -955,7 +1389,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="8"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
@@ -968,7 +1402,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="8"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
@@ -983,7 +1417,7 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="8"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
@@ -996,7 +1430,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="8"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
@@ -1009,7 +1443,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="8"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
@@ -1024,7 +1458,7 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="9"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
@@ -1074,122 +1508,122 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="12"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14"/>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1200,4 +1634,382 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="18.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="20" customWidth="1"/>
+    <col min="4" max="5" width="9" style="20"/>
+    <col min="6" max="6" width="9" style="15"/>
+    <col min="7" max="7" width="17.75" style="15" customWidth="1"/>
+    <col min="8" max="8" width="17" style="15" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:10" ht="30" customHeight="1">
+      <c r="B2" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="20.25" customHeight="1">
+      <c r="B3" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="22">
+        <v>100</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="30">
+        <v>300000</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="32">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="34">
+        <v>100</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="37">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="20.25" customHeight="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" thickBot="1">
+      <c r="B6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B7" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="2:10" ht="29.25" customHeight="1">
+      <c r="B8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="24">
+        <v>132</v>
+      </c>
+      <c r="G8" s="25">
+        <v>450000</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="38">
+        <f>G8*F8</f>
+        <v>59400000</v>
+      </c>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="2:10" ht="24" customHeight="1">
+      <c r="B9" s="31"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="23">
+        <v>66</v>
+      </c>
+      <c r="G9" s="27">
+        <v>450000</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="39">
+        <f>F9*G9</f>
+        <v>29700000</v>
+      </c>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B10" s="31"/>
+      <c r="C10" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="2:10" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B11" s="33"/>
+      <c r="C11" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="2:10" ht="19.5" customHeight="1">
+      <c r="B12" s="19"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="2:10" ht="24" customHeight="1" thickBot="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B14" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B15" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="56">
+        <v>79</v>
+      </c>
+      <c r="G15" s="25">
+        <v>250000</v>
+      </c>
+      <c r="H15" s="26">
+        <v>-0.17</v>
+      </c>
+      <c r="I15" s="55">
+        <f>G15*F15</f>
+        <v>19750000</v>
+      </c>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B16" s="31"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="23">
+        <v>119</v>
+      </c>
+      <c r="G16" s="27">
+        <v>250000</v>
+      </c>
+      <c r="H16" s="28">
+        <v>-0.17</v>
+      </c>
+      <c r="I16" s="39">
+        <f>F16*G16</f>
+        <v>29750000</v>
+      </c>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B17" s="31"/>
+      <c r="C17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:10" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B18" s="33"/>
+      <c r="C18" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B19" s="19"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>